--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7556,7 +7557,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -7572,6 +7572,1468 @@
       </c>
       <c r="H112" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003591</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003592</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9039,4 +9040,2606 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004453</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004454</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>35.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001311</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11642,4 +11643,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11651,7 +11652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11662,17 +11663,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11682,14 +11703,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.36</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11698,14 +11741,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.87</v>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11714,14 +11779,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.56</v>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -11730,13 +11817,2921 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>57.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14630,7 +14631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14641,17 +14642,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14661,14 +14682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>77</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.13</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14677,14 +14720,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.36</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14693,14 +14758,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.87</v>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -14709,14 +14796,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.56</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -14725,13 +14834,5369 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004453</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004454</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20079,7 +20080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20090,17 +20091,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20110,14 +20131,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.2</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -20126,14 +20169,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.13</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -20142,14 +20207,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.36</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -20158,14 +20245,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.87</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -20174,14 +20283,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.56</v>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20190,13 +20321,2805 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2526</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0772</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004453</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004454</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600585-海螺水泥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>18.08</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
-        <v>16.13</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
-        <v>11.36</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>4.87</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>12.56</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.3</v>
       </c>
     </row>
@@ -600,6 +617,4088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7229</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>560550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159641</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159640</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>560060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159642</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通安华混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>560650</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>970090</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通安华混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>970092</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>970091</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>33.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3505,7 +7604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8953,7 +13052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11931,7 +16030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14533,7 +18632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15995,7 +20094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20262,7 +24361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
